--- a/datastatic/datasets/online/SDG6_Fresh_Water_withdrawal_WB_2014.xlsx
+++ b/datastatic/datasets/online/SDG6_Fresh_Water_withdrawal_WB_2014.xlsx
@@ -17,15 +17,15 @@
     <t>Country Name</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>sponsor</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -62,9 +62,15 @@
     <t>Croatia</t>
   </si>
   <si>
+    <t>original_title</t>
+  </si>
+  <si>
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Freshwater withdrawals</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
     <t>Germany</t>
   </si>
   <si>
+    <t>original_indicator_code</t>
+  </si>
+  <si>
+    <t>ER.H2O.FWTL.K3</t>
+  </si>
+  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -92,21 +104,21 @@
     <t>Iceland</t>
   </si>
   <si>
+    <t>title_German</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
-    <t>original_title</t>
-  </si>
-  <si>
-    <t>Freshwater withdrawals</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t>Israel</t>
   </si>
   <si>
+    <t>Frischwasserverbrauch</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -116,24 +128,18 @@
     <t>Kosovo</t>
   </si>
   <si>
+    <t>sdg</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>original_indicator_code</t>
-  </si>
-  <si>
-    <t>ER.H2O.FWTL.K3</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>title_German</t>
-  </si>
-  <si>
     <t>Macedonia, FYR</t>
   </si>
   <si>
@@ -143,7 +149,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Frischwasserverbrauch</t>
+    <t>short_indicator_description</t>
   </si>
   <si>
     <t>Montenegro</t>
@@ -155,12 +161,15 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>sdg</t>
+    <t>short_indicator_description$de</t>
   </si>
   <si>
     <t>Norway</t>
   </si>
   <si>
+    <t>Jährlicher Frischwasserverbrauch pro Kopf</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -170,31 +179,31 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>short_indicator_description$en</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawal per capita</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>short_indicator_description</t>
-  </si>
-  <si>
-    <t>short_indicator_description$de</t>
-  </si>
-  <si>
-    <t>Jährlicher Frischwasserverbrauch pro Kopf</t>
+    <t>long_indicator_description</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
+    <t>long_indicator_description$de$text</t>
+  </si>
+  <si>
     <t>Slovak Republic</t>
   </si>
   <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>short_indicator_description$en</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawal per capita</t>
+    <t xml:space="preserve">In SDG Unterziel 6.4 wird angestrebt, die Effizienz von Frischwasserverbrauch zu erhöhen, um Mangel zu vermeiden und Frischwasser für die gesamte Weltbevölkerung zugänglich zu machen. Jährlicher Frischwasserverbrauch ist der Wasserverbrauch in Kubikmeter pro Kopf für landwirtschaftlichen, industriellen und privaten Verbrauch (Verdunstungen in Wasserbecken bleiben ungezählt). Der Verbrauch beinhaltet auch Wasser von Entsalzungsanlagen in Ländern wo diese eine wesentliche Wasserquelle sind. Weltweit wird extrem viel Frischwasser in der Landwirtschaft verbraucht, sodass dies ein wichtiger Bereich ist, in dem die Wassereffizienz erhöht werden muss. </t>
   </si>
   <si>
     <t>South Africa</t>
@@ -206,12 +215,15 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>long_indicator_description</t>
+    <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>m3 / Kopf</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -221,22 +233,10 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>long_indicator_description$de$text</t>
+    <t>long_indicator_description$en$text</t>
   </si>
   <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In SDG Unterziel 6.4 wird angestrebt, die Effizienz von Frischwasserverbrauch zu erhöhen, um Mangel zu vermeiden und Frischwasser für die gesamte Weltbevölkerung zugänglich zu machen. Jährlicher Frischwasserverbrauch ist der Wasserverbrauch in Kubikmeter pro Kopf für landwirtschaftlichen, industriellen und privaten Verbrauch (Verdunstungen in Wasserbecken bleiben ungezählt). Der Verbrauch beinhaltet auch Wasser von Entsalzungsanlagen in Ländern wo diese eine wesentliche Wasserquelle sind. Weltweit wird extrem viel Frischwasser in der Landwirtschaft verbraucht, sodass dies ein wichtiger Bereich ist, in dem die Wassereffizienz erhöht werden muss. </t>
-  </si>
-  <si>
-    <t>long_indicator_description$de$baseunit</t>
-  </si>
-  <si>
-    <t>m3 / Kopf</t>
-  </si>
-  <si>
-    <t>long_indicator_description$en$text</t>
   </si>
   <si>
     <t xml:space="preserve">According to SDG target 6.4, the efficiency of freshwater use needs to be increased in order to reduce water scarcity and ensure freshwater access for all. Annual freshwater withdrawals refer to total water withdrawals in cubic meter per capita, combining industrial, agricultural and private use, but not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Much of the freshwater worldwide is used for agriculture, so reducing freshwater use in this area is particularly important.  </t>
@@ -591,11 +591,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
@@ -717,542 +717,542 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
+      <c r="A3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
+      <c r="A5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>6.0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>54</v>
+      <c r="A7" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -1261,37 +1261,37 @@
       <c r="B15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -1300,37 +1300,37 @@
       <c r="B16" s="5">
         <v>200.0</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -1339,37 +1339,37 @@
       <c r="B17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -1378,37 +1378,37 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
@@ -1417,74 +1417,74 @@
       <c r="B19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
@@ -1493,37 +1493,37 @@
       <c r="B21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="15" t="s">
@@ -1532,37 +1532,37 @@
       <c r="B22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="15" t="s">
@@ -1571,37 +1571,37 @@
       <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -1610,74 +1610,74 @@
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="17" t="s">
@@ -1686,37 +1686,37 @@
       <c r="B26" s="18">
         <v>42671.0</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="17" t="s">
@@ -1725,37 +1725,37 @@
       <c r="B27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="15" t="s">
@@ -1764,74 +1764,74 @@
       <c r="B28" s="19">
         <v>2014.0</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="17" t="s">
@@ -1840,37 +1840,37 @@
       <c r="B30" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="17" t="s">
@@ -1879,37 +1879,37 @@
       <c r="B31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="17" t="s">
@@ -1918,37 +1918,37 @@
       <c r="B32" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="17" t="s">
@@ -1957,37 +1957,37 @@
       <c r="B33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="17" t="s">
@@ -1996,37 +1996,37 @@
       <c r="B34" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="17" t="s">
@@ -2035,37 +2035,37 @@
       <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="11" t="s">
@@ -2074,37 +2074,37 @@
       <c r="B36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="21" t="s">
@@ -2112,36 +2112,36 @@
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="B38" s="19">
@@ -2372,7 +2372,7 @@
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" s="30">
         <v>221.296086</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B58" s="30">
         <v>156.7644278</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B59" s="30">
         <v>115.5316538</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B60" s="30">
         <v>1308.43752</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B62" s="30">
         <v>1201.498779</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B63" s="30">
         <v>454.6142216</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B65" s="30">
         <v>407.9893804</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B67" s="30">
         <v>884.1016219</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B71" s="30">
         <v>511.9359836</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B72" s="30">
         <v>9197.094561</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B73" s="30">
         <v>163.9512911</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B75" s="30">
         <v>237.8373115</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B76" s="30">
         <v>884.2039878</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B77" s="30">
         <v>640.6736945</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B78" s="30">
         <v>579.0898393</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="80" ht="13.5" customHeight="1">
       <c r="A80" s="23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B80" s="30">
         <v>124.2864064</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="82" ht="13.5" customHeight="1">
       <c r="A82" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B82" s="30">
         <v>215.3209336</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="83" ht="13.5" customHeight="1">
       <c r="A83" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B83" s="30">
         <v>77.47353587</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="85" ht="13.5" customHeight="1">
       <c r="A85" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B85" s="30">
         <v>105.9986335</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="88" ht="13.5" customHeight="1">
       <c r="A88" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B88" s="30">
         <v>635.6356309</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="90" ht="13.5" customHeight="1">
       <c r="A90" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B90" s="26">
         <v>1153.291793</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="92" ht="13.5" customHeight="1">
       <c r="A92" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B92" s="26">
         <v>589.0331603</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="94" ht="13.5" customHeight="1">
       <c r="A94" s="23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B94" s="26">
         <v>302.0119971</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="95" ht="13.5" customHeight="1">
       <c r="A95" s="23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B95" s="26">
         <v>879.8140036</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="104" ht="13.5" customHeight="1">
       <c r="A104" s="23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B104" s="26">
         <v>560.6261942</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B105" s="26">
         <v>803.5561804</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B108" s="26">
         <v>277.3277118</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B109" s="26">
         <v>244.8511348</v>
@@ -7350,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -7366,16 +7366,16 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2.2340024E7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2.2728254E7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>2.3125868E7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2.3490736E7</v>
       </c>
     </row>
@@ -7383,16 +7383,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>8391643.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>8429991.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>8479375.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>8534492.0</v>
       </c>
     </row>
@@ -7400,16 +7400,16 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1.1047744E7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1.1128246E7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1.1182817E7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.1225207E7</v>
       </c>
     </row>
@@ -7417,16 +7417,16 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3832310.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3828419.0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3823533.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>3817554.0</v>
       </c>
     </row>
@@ -7434,16 +7434,16 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2.00517584E8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2.02401584E8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>2.04259377E8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2.06077898E8</v>
       </c>
     </row>
@@ -7451,16 +7451,16 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>7348328.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>7305888.0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>7265115.0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>7226291.0</v>
       </c>
     </row>
@@ -7468,16 +7468,16 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>3.434278E7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>3.4754312E7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>3.5158304E7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>3.5540419E7</v>
       </c>
     </row>
@@ -7485,16 +7485,16 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1.7201305E7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1.7388437E7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.7575833E7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1.7762647E7</v>
       </c>
     </row>
@@ -7502,16 +7502,16 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1.34413E9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.350695E9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1.35738E9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>1.36427E9</v>
       </c>
     </row>
@@ -7519,713 +7519,713 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>4280622.0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>4267558.0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>4255700.0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>4236400.0</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
         <v>1116644.0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>1129303.0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1141652.0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>1153658.0</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
         <v>1.0496088E7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>1.0510785E7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1.0514272E7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>1.0510566E7</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
         <v>5570572.0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>5591572.0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>5614932.0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>5639565.0</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
         <v>1327439.0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1322696.0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>1317997.0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>1313645.0</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
         <v>5388272.0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>5413971.0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>5438972.0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>5463596.0</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
         <v>6.5342776E7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>6.5639975E7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>6.5925498E7</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>6.620693E7</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
         <v>8.1797673E7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>8.0425823E7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>8.0645605E7</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>8.0889505E7</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
         <v>1.1123213E7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>1.1092771E7</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>1.1027549E7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>1.095774E7</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
         <v>9971727.0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>9920362.0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>9893082.0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>9861673.0</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3">
         <v>319014.0</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>320716.0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>323764.0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>327589.0</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3">
         <v>1.247446011E9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>1.263589639E9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>1.279498874E9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>1.295291543E9</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3">
         <v>4576794.0</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>4586897.0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>4598294.0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>4612719.0</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3">
         <v>7765800.0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>7910500.0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>8059500.0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>8215300.0</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
         <v>5.9379449E7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>5.9539717E7</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>6.0233948E7</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>6.1336387E7</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3">
         <v>1.27817277E8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>1.27561489E8</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>1.27338621E8</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>1.271318E8</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="2">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3">
         <v>1790957.0</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>1805200.0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>1818117.0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>1823149.0</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
         <v>2059709.0</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>2034319.0</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>2012647.0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>1990351.0</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
         <v>3028115.0</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>2987773.0</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>2957689.0</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>2929323.0</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3">
         <v>518347.0</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>530946.0</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>543360.0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>556074.0</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
         <v>2065888.0</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>2069270.0</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>2072543.0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>2075625.0</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3">
         <v>416268.0</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>419455.0</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>423374.0</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>427404.0</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="2">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3">
         <v>1.20365271E8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>1.22070963E8</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>1.23740109E8</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>1.25385833E8</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3">
         <v>620079.0</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>620601.0</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>621207.0</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>621800.0</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3">
         <v>1.6693074E7</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>1.6754962E7</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>1.6804432E7</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>1.6854183E7</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3">
         <v>4384000.0</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>4408100.0</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>4442100.0</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>4509700.0</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="2">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3">
         <v>4953088.0</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>5018573.0</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>5079623.0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>5136475.0</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="2">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3">
         <v>3.8063255E7</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>3.8063164E7</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>3.8040196E7</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>3.7995529E7</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="2">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3">
         <v>1.055756E7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>1.0514844E7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>1.0457295E7</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>1.0397393E7</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2">
+        <v>54</v>
+      </c>
+      <c r="B40" s="3">
         <v>2.0147528E7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>2.0058035E7</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>1.9983693E7</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>1.9910995E7</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2">
+        <v>57</v>
+      </c>
+      <c r="B41" s="3">
         <v>1.42960868E8</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>1.43201676E8</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>1.43506911E8</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>1.43819569E8</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2">
+        <v>59</v>
+      </c>
+      <c r="B42" s="3">
         <v>7234099.0</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>7199077.0</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>7164132.0</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>7129428.0</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3">
         <v>5398384.0</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>5407579.0</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>5413393.0</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>5418506.0</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="2">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3">
         <v>2052843.0</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>2057159.0</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>2059953.0</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>2062218.0</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="2">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
         <v>5.1553479E7</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>5.2341695E7</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>5.315749E7</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>5.4001953E7</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="2">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3">
         <v>4.977944E7</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>5.0004441E7</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>5.0219669E7</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>5.0423955E7</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="2">
+        <v>66</v>
+      </c>
+      <c r="B47" s="3">
         <v>4.6742697E7</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>4.6773055E7</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>4.6620045E7</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>4.6404602E7</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="2">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3">
         <v>9449213.0</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>9519374.0</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>9600379.0</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>9689555.0</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2">
+        <v>70</v>
+      </c>
+      <c r="B49" s="3">
         <v>7912398.0</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>7996861.0</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>8089346.0</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>8190229.0</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="2">
+        <v>71</v>
+      </c>
+      <c r="B50" s="3">
         <v>7.3199372E7</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>7.4099255E7</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>7.5010202E7</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>7.5932348E7</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3">
         <v>6.3258918E7</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>6.37003E7</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>6.4106779E7</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>6.4510376E7</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="2">
+        <v>74</v>
+      </c>
+      <c r="B52" s="3">
         <v>3.11721632E8</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>3.14112078E8</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>3.16497531E8</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>3.18857056E8</v>
       </c>
     </row>

--- a/datastatic/datasets/online/SDG6_Fresh_Water_withdrawal_WB_2014.xlsx
+++ b/datastatic/datasets/online/SDG6_Fresh_Water_withdrawal_WB_2014.xlsx
@@ -17,15 +17,15 @@
     <t>Country Name</t>
   </si>
   <si>
+    <t>sponsor</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>sponsor</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -56,21 +56,21 @@
     <t>Chile</t>
   </si>
   <si>
+    <t>original_title</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
+    <t>Freshwater withdrawals</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>original_title</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Freshwater withdrawals</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
@@ -80,19 +80,22 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>original_indicator_code</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>ER.H2O.FWTL.K3</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>original_indicator_code</t>
-  </si>
-  <si>
-    <t>ER.H2O.FWTL.K3</t>
+    <t>title_German</t>
   </si>
   <si>
     <t>Greece</t>
@@ -104,7 +107,7 @@
     <t>Iceland</t>
   </si>
   <si>
-    <t>title_German</t>
+    <t>Frischwasserverbrauch</t>
   </si>
   <si>
     <t>India</t>
@@ -116,7 +119,7 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>Frischwasserverbrauch</t>
+    <t>sdg</t>
   </si>
   <si>
     <t>Italy</t>
@@ -128,18 +131,24 @@
     <t>Kosovo</t>
   </si>
   <si>
-    <t>sdg</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
+    <t>short_indicator_description</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>short_indicator_description$de</t>
+  </si>
+  <si>
+    <t>Jährlicher Frischwasserverbrauch pro Kopf</t>
+  </si>
+  <si>
     <t>Macedonia, FYR</t>
   </si>
   <si>
@@ -149,81 +158,84 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>short_indicator_description</t>
+    <t>short_indicator_description$en</t>
   </si>
   <si>
     <t>Montenegro</t>
   </si>
   <si>
+    <t>Annual freshwater withdrawal per capita</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>short_indicator_description$de</t>
+    <t>long_indicator_description</t>
   </si>
   <si>
     <t>Norway</t>
   </si>
   <si>
-    <t>Jährlicher Frischwasserverbrauch pro Kopf</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
+    <t>long_indicator_description$de$text</t>
+  </si>
+  <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>short_indicator_description$en</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawal per capita</t>
+    <t xml:space="preserve">In SDG Unterziel 6.4 wird angestrebt, die Effizienz von Frischwasserverbrauch zu erhöhen, um Mangel zu vermeiden und Frischwasser für die gesamte Weltbevölkerung zugänglich zu machen. Jährlicher Frischwasserverbrauch ist der Wasserverbrauch in Kubikmeter pro Kopf für landwirtschaftlichen, industriellen und privaten Verbrauch (Verdunstungen in Wasserbecken bleiben ungezählt). Der Verbrauch beinhaltet auch Wasser von Entsalzungsanlagen in Ländern wo diese eine wesentliche Wasserquelle sind. Weltweit wird extrem viel Frischwasser in der Landwirtschaft verbraucht, sodass dies ein wichtiger Bereich ist, in dem die Wassereffizienz erhöht werden muss. </t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>long_indicator_description</t>
+    <t>long_indicator_description$de$baseunit</t>
+  </si>
+  <si>
+    <t>m3 / Kopf</t>
+  </si>
+  <si>
+    <t>long_indicator_description$en$text</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>long_indicator_description$de$text</t>
-  </si>
-  <si>
     <t>Slovak Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">According to SDG target 6.4, the efficiency of freshwater use needs to be increased in order to reduce water scarcity and ensure freshwater access for all. Annual freshwater withdrawals refer to total water withdrawals in cubic meter per capita, combining industrial, agricultural and private use, but not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Much of the freshwater worldwide is used for agriculture, so reducing freshwater use in this area is particularly important.  </t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t xml:space="preserve">In SDG Unterziel 6.4 wird angestrebt, die Effizienz von Frischwasserverbrauch zu erhöhen, um Mangel zu vermeiden und Frischwasser für die gesamte Weltbevölkerung zugänglich zu machen. Jährlicher Frischwasserverbrauch ist der Wasserverbrauch in Kubikmeter pro Kopf für landwirtschaftlichen, industriellen und privaten Verbrauch (Verdunstungen in Wasserbecken bleiben ungezählt). Der Verbrauch beinhaltet auch Wasser von Entsalzungsanlagen in Ländern wo diese eine wesentliche Wasserquelle sind. Weltweit wird extrem viel Frischwasser in der Landwirtschaft verbraucht, sodass dies ein wichtiger Bereich ist, in dem die Wassereffizienz erhöht werden muss. </t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>South Korea</t>
   </si>
   <si>
+    <t>long_indicator_description$en$baseunit</t>
+  </si>
+  <si>
+    <t>m3 / capita</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>long_indicator_description$de$baseunit</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>m3 / Kopf</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -233,19 +245,7 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>long_indicator_description$en$text</t>
-  </si>
-  <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to SDG target 6.4, the efficiency of freshwater use needs to be increased in order to reduce water scarcity and ensure freshwater access for all. Annual freshwater withdrawals refer to total water withdrawals in cubic meter per capita, combining industrial, agricultural and private use, but not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Much of the freshwater worldwide is used for agriculture, so reducing freshwater use in this area is particularly important.  </t>
-  </si>
-  <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
-    <t>m3 / capita</t>
   </si>
   <si>
     <t>target</t>
@@ -718,7 +718,7 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
@@ -755,10 +755,10 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -794,10 +794,10 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -833,10 +833,10 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -872,7 +872,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7">
         <v>6.0</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -948,10 +948,10 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -987,10 +987,10 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55" s="30">
         <v>149.5379494</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" s="30">
         <v>221.296086</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" s="30">
         <v>1201.498779</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B63" s="30">
         <v>454.6142216</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B65" s="30">
         <v>407.9893804</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" s="30">
         <v>884.1016219</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B71" s="30">
         <v>511.9359836</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B72" s="30">
         <v>9197.094561</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" s="30">
         <v>163.9512911</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" s="30">
         <v>237.8373115</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" s="30">
         <v>884.2039878</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B77" s="30">
         <v>640.6736945</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B78" s="30">
         <v>579.0898393</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="82" ht="13.5" customHeight="1">
       <c r="A82" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B82" s="30">
         <v>215.3209336</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="83" ht="13.5" customHeight="1">
       <c r="A83" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" s="30">
         <v>77.47353587</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="85" ht="13.5" customHeight="1">
       <c r="A85" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B85" s="30">
         <v>105.9986335</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="88" ht="13.5" customHeight="1">
       <c r="A88" s="23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B88" s="30">
         <v>635.6356309</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="90" ht="13.5" customHeight="1">
       <c r="A90" s="23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B90" s="26">
         <v>1153.291793</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="92" ht="13.5" customHeight="1">
       <c r="A92" s="23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B92" s="26">
         <v>589.0331603</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="94" ht="13.5" customHeight="1">
       <c r="A94" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B94" s="26">
         <v>302.0119971</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="95" ht="13.5" customHeight="1">
       <c r="A95" s="23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B95" s="26">
         <v>879.8140036</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="104" ht="13.5" customHeight="1">
       <c r="A104" s="23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B104" s="26">
         <v>560.6261942</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B105" s="26">
         <v>803.5561804</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B108" s="26">
         <v>277.3277118</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B109" s="26">
         <v>244.8511348</v>
@@ -7350,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>1.34413E9</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>4280622.0</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>1116644.0</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>5388272.0</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>6.5342776E7</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>8.1797673E7</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
         <v>1.1123213E7</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
         <v>9971727.0</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3">
         <v>319014.0</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
         <v>1.247446011E9</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
         <v>4576794.0</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>7765800.0</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>5.9379449E7</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
         <v>1.27817277E8</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
         <v>1790957.0</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3">
         <v>3028115.0</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3">
         <v>518347.0</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3">
         <v>2065888.0</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3">
         <v>416268.0</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3">
         <v>1.20365271E8</v>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3">
         <v>620079.0</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
         <v>1.6693074E7</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3">
         <v>4384000.0</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3">
         <v>4953088.0</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3">
         <v>3.8063255E7</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3">
         <v>1.055756E7</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3">
         <v>2.0147528E7</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3">
         <v>1.42960868E8</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B42" s="3">
         <v>7234099.0</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3">
         <v>5398384.0</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B44" s="3">
         <v>2052843.0</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3">
         <v>5.1553479E7</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B46" s="3">
         <v>4.977944E7</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B47" s="3">
         <v>4.6742697E7</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3">
         <v>9449213.0</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3">
         <v>7912398.0</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3">
         <v>7.3199372E7</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3">
         <v>6.3258918E7</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3">
         <v>3.11721632E8</v>
